--- a/web/iknit/data/ProductDataload.xlsx
+++ b/web/iknit/data/ProductDataload.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sirdar" sheetId="17" r:id="rId1"/>
     <sheet name="Leaflets" sheetId="18" r:id="rId2"/>
     <sheet name="Rico" sheetId="19" r:id="rId3"/>
+    <sheet name="ImageSnatch" sheetId="20" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="922">
   <si>
     <t>RRP</t>
   </si>
@@ -2511,16 +2512,289 @@
   </si>
   <si>
     <t>ModelNo</t>
+  </si>
+  <si>
+    <t>9471_col.jpg</t>
+  </si>
+  <si>
+    <t>9473_col.jpg</t>
+  </si>
+  <si>
+    <t>9474_col.jpg</t>
+  </si>
+  <si>
+    <t>9475_col.jpg</t>
+  </si>
+  <si>
+    <t>9470_col.jpg</t>
+  </si>
+  <si>
+    <t>9290_col.jpg</t>
+  </si>
+  <si>
+    <t>9407_col.jpg</t>
+  </si>
+  <si>
+    <t>1246_col.jpg</t>
+  </si>
+  <si>
+    <t>1247_col.jpg</t>
+  </si>
+  <si>
+    <t>1249_col.jpg</t>
+  </si>
+  <si>
+    <t>1251_col.jpg</t>
+  </si>
+  <si>
+    <t>1969_col.jpg</t>
+  </si>
+  <si>
+    <t>3174_col.jpg</t>
+  </si>
+  <si>
+    <t>3806_col.jpg</t>
+  </si>
+  <si>
+    <t>1242_col.jpg</t>
+  </si>
+  <si>
+    <t>1944_col.jpg</t>
+  </si>
+  <si>
+    <t>1236_col.jpg</t>
+  </si>
+  <si>
+    <t>2289_col.jpg</t>
+  </si>
+  <si>
+    <t>9288_col.jpg</t>
+  </si>
+  <si>
+    <t>1228_col.jpg</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>F085-0193</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>854</t>
+  </si>
+  <si>
+    <t>1229_col.jpg</t>
+  </si>
+  <si>
+    <t>F085-0192</t>
+  </si>
+  <si>
+    <t>853</t>
+  </si>
+  <si>
+    <t>1230_col.jpg</t>
+  </si>
+  <si>
+    <t>F085-0191</t>
+  </si>
+  <si>
+    <t>852</t>
+  </si>
+  <si>
+    <t>1231_col.jpg</t>
+  </si>
+  <si>
+    <t>F085-0190</t>
+  </si>
+  <si>
+    <t>851</t>
+  </si>
+  <si>
+    <t>1232_col.jpg</t>
+  </si>
+  <si>
+    <t>F010-0317</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>1233_col.jpg</t>
+  </si>
+  <si>
+    <t>F010-0316</t>
+  </si>
+  <si>
+    <t>849</t>
+  </si>
+  <si>
+    <t>1234_col.jpg</t>
+  </si>
+  <si>
+    <t>F010-0315</t>
+  </si>
+  <si>
+    <t>848</t>
+  </si>
+  <si>
+    <t>1235_col.jpg</t>
+  </si>
+  <si>
+    <t>F010-0314</t>
+  </si>
+  <si>
+    <t>847</t>
+  </si>
+  <si>
+    <t>9417_col.jpg</t>
+  </si>
+  <si>
+    <t>F010-0313</t>
+  </si>
+  <si>
+    <t>846</t>
+  </si>
+  <si>
+    <t>9418_col.jpg</t>
+  </si>
+  <si>
+    <t>F010-0312</t>
+  </si>
+  <si>
+    <t>845</t>
+  </si>
+  <si>
+    <t>9419_col.jpg</t>
+  </si>
+  <si>
+    <t>F010-0311</t>
+  </si>
+  <si>
+    <t>844</t>
+  </si>
+  <si>
+    <t>9420_col.jpg</t>
+  </si>
+  <si>
+    <t>F010-0310</t>
+  </si>
+  <si>
+    <t>843</t>
+  </si>
+  <si>
+    <t>9421_col.jpg</t>
+  </si>
+  <si>
+    <t>F084-0645</t>
+  </si>
+  <si>
+    <t>842</t>
+  </si>
+  <si>
+    <t>9422_col.jpg</t>
+  </si>
+  <si>
+    <t>F075-0419</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>841</t>
+  </si>
+  <si>
+    <t>9423_col.jpg</t>
+  </si>
+  <si>
+    <t>F075-0415</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>9424_col.jpg</t>
+  </si>
+  <si>
+    <t>F075-0413</t>
+  </si>
+  <si>
+    <t>839</t>
+  </si>
+  <si>
+    <t>1849_col.jpg</t>
+  </si>
+  <si>
+    <t>F075-0409</t>
+  </si>
+  <si>
+    <t>838</t>
+  </si>
+  <si>
+    <t>1852_col.jpg</t>
+  </si>
+  <si>
+    <t>F087-0067</t>
+  </si>
+  <si>
+    <t>837</t>
+  </si>
+  <si>
+    <t>1243_col.jpg</t>
+  </si>
+  <si>
+    <t>F087-0066</t>
+  </si>
+  <si>
+    <t>836</t>
+  </si>
+  <si>
+    <t>1244_col.jpg</t>
+  </si>
+  <si>
+    <t>F087-0055</t>
+  </si>
+  <si>
+    <t>835</t>
+  </si>
+  <si>
+    <t>1245_col.jpg</t>
+  </si>
+  <si>
+    <t>F087-0054</t>
+  </si>
+  <si>
+    <t>834</t>
+  </si>
+  <si>
+    <t>1998_col.jpg</t>
+  </si>
+  <si>
+    <t>F075-0267</t>
+  </si>
+  <si>
+    <t>833</t>
+  </si>
+  <si>
+    <t>1999_col.jpg</t>
+  </si>
+  <si>
+    <t>F075-0265</t>
+  </si>
+  <si>
+    <t>832</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2550,6 +2824,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2593,7 +2874,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2623,6 +2904,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent4" xfId="2" builtinId="41"/>
@@ -2631,6 +2913,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2709,6 +2996,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2743,6 +3031,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2918,7 +3207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2926,7 +3215,7 @@
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
@@ -2949,7 +3238,7 @@
     <col min="20" max="20" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30">
+    <row r="1" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>199</v>
       </c>
@@ -3008,7 +3297,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="45">
+    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>188</v>
       </c>
@@ -3076,7 +3365,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='3.95' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=49) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="45">
+    <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -3144,7 +3433,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='5.80' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=51) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="45">
+    <row r="4" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>189</v>
       </c>
@@ -3212,7 +3501,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='3.40' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=50) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="45">
+    <row r="5" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>193</v>
       </c>
@@ -3280,7 +3569,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='5.40' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=53) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="60">
+    <row r="6" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>190</v>
       </c>
@@ -3348,7 +3637,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='3.10' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=52) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="120">
+    <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>172</v>
       </c>
@@ -3416,7 +3705,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='3.35' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=62) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="45">
+    <row r="8" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>194</v>
       </c>
@@ -3484,7 +3773,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='2.00' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=63) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="45">
+    <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>187</v>
       </c>
@@ -3552,7 +3841,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='3.60' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=57) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="90">
+    <row r="10" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>195</v>
       </c>
@@ -3620,7 +3909,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='3.35' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=54) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="60">
+    <row r="11" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>192</v>
       </c>
@@ -3688,7 +3977,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='5.40' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=59) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="60">
+    <row r="12" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>191</v>
       </c>
@@ -3756,7 +4045,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='3.10' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=58) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="75">
+    <row r="13" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>198</v>
       </c>
@@ -3824,7 +4113,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='3.35' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=56) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="60">
+    <row r="14" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>173</v>
       </c>
@@ -3892,7 +4181,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='2.00' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=55) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="90">
+    <row r="15" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -3960,7 +4249,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='2.60' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=60) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="60">
+    <row r="16" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>182</v>
       </c>
@@ -4028,7 +4317,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='3.35' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=61) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="75">
+    <row r="17" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>179</v>
       </c>
@@ -4096,7 +4385,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='2.65' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=68) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="60">
+    <row r="18" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>196</v>
       </c>
@@ -4164,7 +4453,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='3.35' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=67) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="60">
+    <row r="19" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>185</v>
       </c>
@@ -4232,7 +4521,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='2.65' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=65) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="60">
+    <row r="20" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -4300,7 +4589,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='3.35' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=64) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="45">
+    <row r="21" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>171</v>
       </c>
@@ -4368,7 +4657,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='3.29' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=66) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="60">
+    <row r="22" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>174</v>
       </c>
@@ -4436,7 +4725,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='5.35' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=69) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="150">
+    <row r="23" spans="1:21" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -4504,7 +4793,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='3.90' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=70) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="75">
+    <row r="24" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>177</v>
       </c>
@@ -4572,7 +4861,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='3.35' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=73) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="60">
+    <row r="25" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>181</v>
       </c>
@@ -4640,7 +4929,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='3.35' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=75) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="90">
+    <row r="26" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>184</v>
       </c>
@@ -4708,7 +4997,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='3.90' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=71) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="90">
+    <row r="27" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>183</v>
       </c>
@@ -4776,7 +5065,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='4.45' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=74) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="165">
+    <row r="28" spans="1:21" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>197</v>
       </c>
@@ -4844,7 +5133,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='10.00' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=72) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="105">
+    <row r="29" spans="1:21" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>176</v>
       </c>
@@ -4912,7 +5201,7 @@
         <v>UPDATE products_to_products_extra_fields ppe SET products_extra_fields_value='3.90' WHERE EXISTS (SELECT 1 FROM products p, products_to_categories pc WHERE pc.products_id = p.products_id AND p.products_id = ppe.products_id AND pc.categories_id=77) AND ppe.products_extra_fields_id=1;</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="45">
+    <row r="30" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>170</v>
       </c>
@@ -4988,14 +5277,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I267"/>
   <sheetViews>
     <sheetView topLeftCell="B262" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H267"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
@@ -5006,7 +5295,7 @@
     <col min="9" max="9" width="143.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45">
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>785</v>
       </c>
@@ -5029,7 +5318,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="60">
+    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>81</v>
       </c>
@@ -5057,7 +5346,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '3851', '81', '3851_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly 2 Ply',0.00, 'Snuggly 2 Ply (3851)');</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="60">
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>81</v>
       </c>
@@ -5085,7 +5374,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '3029', '81', '3029_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly 3 Ply',0.00, 'Snuggly 3 Ply (3029)');</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="60">
+    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>81</v>
       </c>
@@ -5113,7 +5402,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '3421', '81', '3421_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly 3 Ply',0.00, 'Snuggly 3 Ply (3421)');</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="60">
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>81</v>
       </c>
@@ -5141,7 +5430,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1706', '81', '1706_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly 4 Ply',0.00, 'Snuggly 4 Ply (1706)');</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="60">
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>81</v>
       </c>
@@ -5169,7 +5458,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1769', '81', '1769_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly 4 Ply',0.00, 'Snuggly 4 Ply (1769)');</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="60">
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>81</v>
       </c>
@@ -5197,7 +5486,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1926', '81', '1926_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Baby Crofter Dk',0.00, 'Snuggly Baby Crofter Dk (1926)');</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="60">
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>81</v>
       </c>
@@ -5225,7 +5514,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1927', '81', '1927_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Baby Crofter Dk',0.00, 'Snuggly Baby Crofter Dk (1927)');</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="60">
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>81</v>
       </c>
@@ -5253,7 +5542,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1928', '81', '1928_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Baby Crofter Dk',0.00, 'Snuggly Baby Crofter Dk (1928)');</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60">
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>81</v>
       </c>
@@ -5281,7 +5570,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1929', '81', '1929_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Baby Crofter Dk',0.00, 'Snuggly Baby Crofter Dk (1929)');</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="60">
+    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>81</v>
       </c>
@@ -5309,7 +5598,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1930', '81', '1930_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Baby Crofter Dk',0.00, 'Snuggly Baby Crofter Dk (1930)');</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="60">
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>81</v>
       </c>
@@ -5337,7 +5626,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1931', '81', '1931_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Baby Crofter Dk',0.00, 'Snuggly Baby Crofter Dk (1931)');</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="60">
+    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>81</v>
       </c>
@@ -5365,7 +5654,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1932', '81', '1932_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Baby Crofter Dk',0.00, 'Snuggly Baby Crofter Dk (1932)');</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="60">
+    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>81</v>
       </c>
@@ -5393,7 +5682,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1933', '81', '1933_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Baby Crofter Dk',0.00, 'Snuggly Baby Crofter Dk (1933)');</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="60">
+    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>81</v>
       </c>
@@ -5421,7 +5710,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1946', '81', '1946_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Baby Crofter Dk',0.00, 'Snuggly Baby Crofter Dk (1946)');</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="60">
+    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>81</v>
       </c>
@@ -5449,7 +5738,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1947', '81', '1947_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Baby Crofter Dk',0.00, 'Snuggly Baby Crofter Dk (1947)');</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="60">
+    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>81</v>
       </c>
@@ -5477,7 +5766,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1962', '81', '1962_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Baby Crofter Dk',0.00, 'Snuggly Baby Crofter Dk (1962)');</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="60">
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>81</v>
       </c>
@@ -5505,7 +5794,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1963', '81', '1963_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Baby Crofter Dk',0.00, 'Snuggly Baby Crofter Dk (1963)');</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="60">
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>81</v>
       </c>
@@ -5533,7 +5822,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1964', '81', '1964_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Baby Crofter Dk',0.00, 'Snuggly Baby Crofter Dk (1964)');</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="60">
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>81</v>
       </c>
@@ -5561,7 +5850,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1965', '81', '1965_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Baby Crofter Dk',0.00, 'Snuggly Baby Crofter Dk (1965)');</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="60">
+    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>81</v>
       </c>
@@ -5589,7 +5878,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1966', '81', '1966_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Baby Crofter Dk',0.00, 'Snuggly Baby Crofter Dk (1966)');</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="60">
+    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>81</v>
       </c>
@@ -5617,7 +5906,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1967', '81', '1967_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Baby Crofter Dk',0.00, 'Snuggly Baby Crofter Dk (1967)');</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="60">
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>81</v>
       </c>
@@ -5645,7 +5934,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1850', '81', '1850_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Snowflake Dk',0.00, 'Snuggly Snowflake Dk (1850)');</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="60">
+    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>81</v>
       </c>
@@ -5673,7 +5962,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1870', '81', '1870_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Snowflake Dk',0.00, 'Snuggly Snowflake Dk (1870)');</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="60">
+    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>81</v>
       </c>
@@ -5701,7 +5990,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1871', '81', '1871_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Snowflake Dk',0.00, 'Snuggly Snowflake Dk (1871)');</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="60">
+    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>81</v>
       </c>
@@ -5729,7 +6018,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1922', '81', '1922_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Snowflake Dk',0.00, 'Snuggly Snowflake Dk (1922)');</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="60">
+    <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>81</v>
       </c>
@@ -5757,7 +6046,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1935', '81', '1935_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Snowflake Dk',0.00, 'Snuggly Snowflake Dk (1935)');</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="60">
+    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>81</v>
       </c>
@@ -5785,7 +6074,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1835', '81', '1835_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Kisses Dk',0.00, 'Snuggly Kisses Dk (1835)');</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="60">
+    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>81</v>
       </c>
@@ -5813,7 +6102,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1836', '81', '1836_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Kisses Dk',0.00, 'Snuggly Kisses Dk (1836)');</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="60">
+    <row r="30" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>81</v>
       </c>
@@ -5841,7 +6130,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1837', '81', '1837_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Kisses Dk',0.00, 'Snuggly Kisses Dk (1837)');</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="60">
+    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>81</v>
       </c>
@@ -5869,7 +6158,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1838', '81', '1838_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Kisses Dk',0.00, 'Snuggly Kisses Dk (1838)');</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="60">
+    <row r="32" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>81</v>
       </c>
@@ -5897,7 +6186,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1839', '81', '1839_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Kisses Dk',0.00, 'Snuggly Kisses Dk (1839)');</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="60">
+    <row r="33" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>81</v>
       </c>
@@ -5925,7 +6214,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1840', '81', '1840_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Kisses Dk',0.00, 'Snuggly Kisses Dk (1840)');</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="60">
+    <row r="34" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>81</v>
       </c>
@@ -5953,7 +6242,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1841', '81', '1841_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Kisses Dk',0.00, 'Snuggly Kisses Dk (1841)');</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="60">
+    <row r="35" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>81</v>
       </c>
@@ -5981,7 +6270,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1842', '81', '1842_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Kisses Dk',0.00, 'Snuggly Kisses Dk (1842)');</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="60">
+    <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>81</v>
       </c>
@@ -6009,7 +6298,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1855', '81', '1855_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Kisses Dk',0.00, 'Snuggly Kisses Dk (1855)');</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="60">
+    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>81</v>
       </c>
@@ -6037,7 +6326,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1856', '81', '1856_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Kisses Dk',0.00, 'Snuggly Kisses Dk (1856)');</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="60">
+    <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>81</v>
       </c>
@@ -6065,7 +6354,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1903', '81', '1903_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Kisses Dk',0.00, 'Snuggly Kisses Dk (1903)');</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="60">
+    <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>81</v>
       </c>
@@ -6093,7 +6382,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1905', '81', '1905_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Kisses Dk',0.00, 'Snuggly Kisses Dk (1905)');</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="60">
+    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>81</v>
       </c>
@@ -6121,7 +6410,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1906', '81', '1906_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Kisses Dk',0.00, 'Snuggly Kisses Dk (1906)');</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="60">
+    <row r="41" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>81</v>
       </c>
@@ -6149,7 +6438,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1991', '81', '1991_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Kisses Dk',0.00, 'Snuggly Kisses Dk (1991)');</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="60">
+    <row r="42" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>81</v>
       </c>
@@ -6177,7 +6466,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1992', '81', '1992_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Kisses Dk',0.00, 'Snuggly Kisses Dk (1992)');</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="60">
+    <row r="43" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>81</v>
       </c>
@@ -6205,7 +6494,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1730', '81', '1730_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Baby Bamboo Dk',0.00, 'Snuggly Baby Bamboo Dk (1730)');</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="60">
+    <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>81</v>
       </c>
@@ -6233,7 +6522,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1804', '81', '1804_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Baby Bamboo Dk',0.00, 'Snuggly Baby Bamboo Dk (1804)');</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="60">
+    <row r="45" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>81</v>
       </c>
@@ -6261,7 +6550,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1805', '81', '1805_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Baby Bamboo Dk',0.00, 'Snuggly Baby Bamboo Dk (1805)');</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="60">
+    <row r="46" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>81</v>
       </c>
@@ -6289,7 +6578,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1806', '81', '1806_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Baby Bamboo Dk',0.00, 'Snuggly Baby Bamboo Dk (1806)');</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="60">
+    <row r="47" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>81</v>
       </c>
@@ -6317,7 +6606,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1822', '81', '1822_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Baby Bamboo Dk',0.00, 'Snuggly Baby Bamboo Dk (1822)');</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="60">
+    <row r="48" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>81</v>
       </c>
@@ -6345,7 +6634,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1823', '81', '1823_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Baby Bamboo Dk',0.00, 'Snuggly Baby Bamboo Dk (1823)');</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="60">
+    <row r="49" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>81</v>
       </c>
@@ -6373,7 +6662,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1625', '81', '1625_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Dk',0.00, 'Snuggly Dk (1625)');</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="60">
+    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>81</v>
       </c>
@@ -6401,7 +6690,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1648', '81', '1648_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Dk',0.00, 'Snuggly Dk (1648)');</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="60">
+    <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>81</v>
       </c>
@@ -6429,7 +6718,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1707', '81', '1707_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Dk',0.00, 'Snuggly Dk (1707)');</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="60">
+    <row r="52" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>81</v>
       </c>
@@ -6457,7 +6746,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1711', '81', '1711_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Dk',0.00, 'Snuggly Dk (1711)');</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="60">
+    <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>81</v>
       </c>
@@ -6485,7 +6774,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1737', '81', '1737_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Dk',0.00, 'Snuggly Dk (1737)');</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="60">
+    <row r="54" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>81</v>
       </c>
@@ -6513,7 +6802,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1749', '81', '1749_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Dk',0.00, 'Snuggly Dk (1749)');</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="60">
+    <row r="55" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>81</v>
       </c>
@@ -6541,7 +6830,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1813', '81', '1813_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Dk',0.00, 'Snuggly Dk (1813)');</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="60">
+    <row r="56" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>81</v>
       </c>
@@ -6569,7 +6858,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1858', '81', '1858_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Dk',0.00, 'Snuggly Dk (1858)');</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="60">
+    <row r="57" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>81</v>
       </c>
@@ -6597,7 +6886,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1859', '81', '1859_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Dk',0.00, 'Snuggly Dk (1859)');</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="60">
+    <row r="58" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>81</v>
       </c>
@@ -6625,7 +6914,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1861', '81', '1861_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Dk',0.00, 'Snuggly Dk (1861)');</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="60">
+    <row r="59" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>81</v>
       </c>
@@ -6653,7 +6942,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1862', '81', '1862_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Dk',0.00, 'Snuggly Dk (1862)');</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="60">
+    <row r="60" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>81</v>
       </c>
@@ -6681,7 +6970,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1889', '81', '1889_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Dk',0.00, 'Snuggly Dk (1889)');</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="60">
+    <row r="61" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>81</v>
       </c>
@@ -6709,7 +6998,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1894', '81', '1894_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Dk',0.00, 'Snuggly Dk (1894)');</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="60">
+    <row r="62" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>81</v>
       </c>
@@ -6737,7 +7026,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1896', '81', '1896_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Dk',0.00, 'Snuggly Dk (1896)');</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="60">
+    <row r="63" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>81</v>
       </c>
@@ -6765,7 +7054,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '3086', '81', '3086_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Dk',0.00, 'Snuggly Dk (3086)');</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="60">
+    <row r="64" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>81</v>
       </c>
@@ -6793,7 +7082,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '3956', '81', '3956_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Dk',0.00, 'Snuggly Dk (3956)');</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="60">
+    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>81</v>
       </c>
@@ -6821,7 +7110,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '3123', '81', '3123_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Baby Bonus Dk',0.00, 'Baby Bonus Dk (3123)');</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="60">
+    <row r="66" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>81</v>
       </c>
@@ -6849,7 +7138,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1759', '81', '1759_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Supersoft Aran',0.00, 'Supersoft Aran (1759)');</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="60">
+    <row r="67" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>81</v>
       </c>
@@ -6877,7 +7166,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1760', '81', '1760_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Supersoft Aran',0.00, 'Supersoft Aran (1760)');</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="60">
+    <row r="68" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>81</v>
       </c>
@@ -6905,7 +7194,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '2225', '81', '2225_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Supersoft Aran',0.00, 'Supersoft Aran (2225)');</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="60">
+    <row r="69" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>81</v>
       </c>
@@ -6933,7 +7222,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '3190', '81', '3190_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Supersoft Aran',0.00, 'Supersoft Aran (3190)');</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="60">
+    <row r="70" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>81</v>
       </c>
@@ -6961,7 +7250,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1936', '81', '1936_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Baby Snowball',0.00, 'Baby Snowball (1936)');</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="60">
+    <row r="71" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>81</v>
       </c>
@@ -6989,7 +7278,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1937', '81', '1937_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Baby Snowball',0.00, 'Baby Snowball (1937)');</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="60">
+    <row r="72" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>81</v>
       </c>
@@ -7017,7 +7306,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1938', '81', '1938_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Baby Snowball',0.00, 'Baby Snowball (1938)');</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="60">
+    <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>81</v>
       </c>
@@ -7045,7 +7334,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1939', '81', '1939_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Baby Snowball',0.00, 'Baby Snowball (1939)');</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="60">
+    <row r="74" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>81</v>
       </c>
@@ -7073,7 +7362,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1940', '81', '1940_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Baby Snowball',0.00, 'Baby Snowball (1940)');</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="60">
+    <row r="75" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>81</v>
       </c>
@@ -7101,7 +7390,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1941', '81', '1941_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Baby Snowball',0.00, 'Baby Snowball (1941)');</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="60">
+    <row r="76" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>81</v>
       </c>
@@ -7129,7 +7418,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1942', '81', '1942_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Baby Snowball',0.00, 'Baby Snowball (1942)');</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="60">
+    <row r="77" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>81</v>
       </c>
@@ -7157,7 +7446,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1943', '81', '1943_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Baby Snowball',0.00, 'Baby Snowball (1943)');</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="60">
+    <row r="78" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>81</v>
       </c>
@@ -7185,7 +7474,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1560', '81', '1560_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Tiny Tots Dk',0.00, 'Snuggly Tiny Tots Dk (1560)');</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="60">
+    <row r="79" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>81</v>
       </c>
@@ -7213,7 +7502,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1682', '81', '1682_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Tiny Tots Dk',0.00, 'Snuggly Tiny Tots Dk (1682)');</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="60">
+    <row r="80" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>81</v>
       </c>
@@ -7241,7 +7530,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1743', '81', '1743_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Tiny Tots Dk',0.00, 'Snuggly Tiny Tots Dk (1743)');</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="60">
+    <row r="81" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>81</v>
       </c>
@@ -7269,7 +7558,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1744', '81', '1744_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Tiny Tots Dk',0.00, 'Snuggly Tiny Tots Dk (1744)');</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="60">
+    <row r="82" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7297,7 +7586,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1755', '81', '1755_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Tiny Tots Dk',0.00, 'Snuggly Tiny Tots Dk (1755)');</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="60">
+    <row r="83" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -7325,7 +7614,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1788', '81', '1788_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Tiny Tots Dk',0.00, 'Snuggly Tiny Tots Dk (1788)');</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="60">
+    <row r="84" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>81</v>
       </c>
@@ -7353,7 +7642,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1790', '81', '1790_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Tiny Tots Dk',0.00, 'Snuggly Tiny Tots Dk (1790)');</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="60">
+    <row r="85" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>81</v>
       </c>
@@ -7381,7 +7670,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1791', '81', '1791_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Tiny Tots Dk',0.00, 'Snuggly Tiny Tots Dk (1791)');</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="60">
+    <row r="86" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>81</v>
       </c>
@@ -7409,7 +7698,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1910', '81', '1910_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Tiny Tots Dk',0.00, 'Snuggly Tiny Tots Dk (1910)');</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="60">
+    <row r="87" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>81</v>
       </c>
@@ -7437,7 +7726,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1968', '81', '1968_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Snowdrops Chunky',0.00, 'Snuggly Snowdrops Chunky (1968)');</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="60">
+    <row r="88" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>81</v>
       </c>
@@ -7465,7 +7754,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1970', '81', '1970_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Snowdrops Chunky',0.00, 'Snuggly Snowdrops Chunky (1970)');</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="60">
+    <row r="89" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>81</v>
       </c>
@@ -7493,7 +7782,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1971', '81', '1971_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Snowdrops Chunky',0.00, 'Snuggly Snowdrops Chunky (1971)');</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="60">
+    <row r="90" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>81</v>
       </c>
@@ -7521,7 +7810,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1972', '81', '1972_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Snowdrops Chunky',0.00, 'Snuggly Snowdrops Chunky (1972)');</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="60">
+    <row r="91" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>81</v>
       </c>
@@ -7549,7 +7838,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1973', '81', '1973_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Snowdrops Chunky',0.00, 'Snuggly Snowdrops Chunky (1973)');</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="60">
+    <row r="92" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>81</v>
       </c>
@@ -7577,7 +7866,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1974', '81', '1974_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Snowdrops Chunky',0.00, 'Snuggly Snowdrops Chunky (1974)');</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="60">
+    <row r="93" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>81</v>
       </c>
@@ -7605,7 +7894,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1975', '81', '1975_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Snowdrops Chunky',0.00, 'Snuggly Snowdrops Chunky (1975)');</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="60">
+    <row r="94" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>81</v>
       </c>
@@ -7633,7 +7922,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1771', '81', '1771_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Snowflake Chunky',0.00, 'Snuggly Snowflake Chunky (1771)');</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="60">
+    <row r="95" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>81</v>
       </c>
@@ -7661,7 +7950,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1772', '81', '1772_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Snowflake Chunky',0.00, 'Snuggly Snowflake Chunky (1772)');</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="60">
+    <row r="96" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>81</v>
       </c>
@@ -7689,7 +7978,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1773', '81', '1773_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Snowflake Chunky',0.00, 'Snuggly Snowflake Chunky (1773)');</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="60">
+    <row r="97" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>81</v>
       </c>
@@ -7717,7 +8006,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1774', '81', '1774_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Snowflake Chunky',0.00, 'Snuggly Snowflake Chunky (1774)');</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="60">
+    <row r="98" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>81</v>
       </c>
@@ -7745,7 +8034,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1775', '81', '1775_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Snowflake Chunky',0.00, 'Snuggly Snowflake Chunky (1775)');</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="60">
+    <row r="99" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>81</v>
       </c>
@@ -7773,7 +8062,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1882', '81', '1882_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Snowflake Chunky',0.00, 'Snuggly Snowflake Chunky (1882)');</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="60">
+    <row r="100" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>81</v>
       </c>
@@ -7801,7 +8090,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1884', '81', '1884_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Snowflake Chunky',0.00, 'Snuggly Snowflake Chunky (1884)');</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="60">
+    <row r="101" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>81</v>
       </c>
@@ -7829,7 +8118,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1923', '81', '1923_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Snowflake Chunky',0.00, 'Snuggly Snowflake Chunky (1923)');</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="60">
+    <row r="102" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>81</v>
       </c>
@@ -7857,7 +8146,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1924', '81', '1924_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Snowflake Chunky',0.00, 'Snuggly Snowflake Chunky (1924)');</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="60">
+    <row r="103" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>81</v>
       </c>
@@ -7885,7 +8174,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1925', '81', '1925_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Snowflake Chunky',0.00, 'Snuggly Snowflake Chunky (1925)');</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="60">
+    <row r="104" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>81</v>
       </c>
@@ -7913,7 +8202,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1934', '81', '1934_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Snowflake Chunky',0.00, 'Snuggly Snowflake Chunky (1934)');</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="60">
+    <row r="105" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>81</v>
       </c>
@@ -7941,7 +8230,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1959', '81', '1959_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Snowflake Chunky',0.00, 'Snuggly Snowflake Chunky (1959)');</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="60">
+    <row r="106" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>81</v>
       </c>
@@ -7969,7 +8258,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1960', '81', '1960_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Snowflake Chunky',0.00, 'Snuggly Snowflake Chunky (1960)');</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="60">
+    <row r="107" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>81</v>
       </c>
@@ -7997,7 +8286,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '1961', '81', '1961_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Snowflake Chunky',0.00, 'Snuggly Snowflake Chunky (1961)');</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="60">
+    <row r="108" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>81</v>
       </c>
@@ -8025,7 +8314,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '3116', '81', '3116_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Snuggly Snowflake Chunky',0.00, 'Snuggly Snowflake Chunky (3116)');</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="60">
+    <row r="109" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>82</v>
       </c>
@@ -8053,7 +8342,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '8397', '82', '8397_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Country Style 4 Ply',0.00, 'Country Style 4 Ply (8397)');</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="60">
+    <row r="110" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>82</v>
       </c>
@@ -8081,7 +8370,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '8524', '82', '8524_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Country Style 4 Ply',0.00, 'Country Style 4 Ply (8524)');</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="60">
+    <row r="111" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>82</v>
       </c>
@@ -8109,7 +8398,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9235', '82', '9235_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Country Style 4 Ply',0.00, 'Country Style 4 Ply (9235)');</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="60">
+    <row r="112" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>82</v>
       </c>
@@ -8137,7 +8426,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9349', '82', '9349_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Country Style 4 Ply',0.00, 'Country Style 4 Ply (9349)');</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="60">
+    <row r="113" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>82</v>
       </c>
@@ -8165,7 +8454,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '0900', '82', '0900_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Bonus Toytime Dk',0.00, 'Bonus Toytime Dk (0900)');</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="60">
+    <row r="114" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>82</v>
       </c>
@@ -8193,7 +8482,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '0901', '82', '0901_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Bonus Toytime Dk',0.00, 'Bonus Toytime Dk (0901)');</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="60">
+    <row r="115" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>82</v>
       </c>
@@ -8221,7 +8510,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '0902', '82', '0902_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Bonus Toytime Dk',0.00, 'Bonus Toytime Dk (0902)');</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="60">
+    <row r="116" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>82</v>
       </c>
@@ -8249,7 +8538,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '0903', '82', '0903_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Bonus Toytime Dk',0.00, 'Bonus Toytime Dk (0903)');</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="60">
+    <row r="117" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>82</v>
       </c>
@@ -8277,7 +8566,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '0904', '82', '0904_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Bonus Toytime Dk',0.00, 'Bonus Toytime Dk (0904)');</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="60">
+    <row r="118" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>82</v>
       </c>
@@ -8305,7 +8594,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '0905', '82', '0905_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Bonus Toytime Dk',0.00, 'Bonus Toytime Dk (0905)');</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="60">
+    <row r="119" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>82</v>
       </c>
@@ -8333,7 +8622,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '0906', '82', '0906_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Bonus Toytime Dk',0.00, 'Bonus Toytime Dk (0906)');</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="60">
+    <row r="120" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>82</v>
       </c>
@@ -8361,7 +8650,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '0907', '82', '0907_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Bonus Toytime Dk',0.00, 'Bonus Toytime Dk (0907)');</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="60">
+    <row r="121" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>82</v>
       </c>
@@ -8389,7 +8678,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '0908', '82', '0908_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Bonus Toytime Dk',0.00, 'Bonus Toytime Dk (0908)');</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="60">
+    <row r="122" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>82</v>
       </c>
@@ -8417,7 +8706,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '0909', '82', '0909_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Bonus Toytime Dk',0.00, 'Bonus Toytime Dk (0909)');</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="60">
+    <row r="123" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>82</v>
       </c>
@@ -8445,7 +8734,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '0910', '82', '0910_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Bonus Toytime Dk',0.00, 'Bonus Toytime Dk (0910)');</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="60">
+    <row r="124" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>82</v>
       </c>
@@ -8473,7 +8762,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '0911', '82', '0911_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Bonus Toytime Dk',0.00, 'Bonus Toytime Dk (0911)');</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="60">
+    <row r="125" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>82</v>
       </c>
@@ -8501,7 +8790,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '0912', '82', '0912_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Bonus Toytime Dk',0.00, 'Bonus Toytime Dk (0912)');</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="60">
+    <row r="126" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>82</v>
       </c>
@@ -8529,7 +8818,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '0913', '82', '0913_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Bonus Toytime Dk',0.00, 'Bonus Toytime Dk (0913)');</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="60">
+    <row r="127" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>82</v>
       </c>
@@ -8557,7 +8846,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '0914', '82', '0914_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Bonus Toytime Dk',0.00, 'Bonus Toytime Dk (0914)');</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="60">
+    <row r="128" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>82</v>
       </c>
@@ -8585,7 +8874,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '0915', '82', '0915_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Bonus Toytime Dk',0.00, 'Bonus Toytime Dk (0915)');</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="60">
+    <row r="129" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>82</v>
       </c>
@@ -8613,7 +8902,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '0916', '82', '0916_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Bonus Toytime Dk',0.00, 'Bonus Toytime Dk (0916)');</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="60">
+    <row r="130" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>82</v>
       </c>
@@ -8641,7 +8930,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '0917', '82', '0917_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Bonus Toytime Dk',0.00, 'Bonus Toytime Dk (0917)');</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="60">
+    <row r="131" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>82</v>
       </c>
@@ -8669,7 +8958,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '0918', '82', '0918_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Bonus Toytime Dk',0.00, 'Bonus Toytime Dk (0918)');</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="60">
+    <row r="132" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>82</v>
       </c>
@@ -8697,7 +8986,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '0919', '82', '0919_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Bonus Toytime Dk',0.00, 'Bonus Toytime Dk (0919)');</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="60">
+    <row r="133" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>82</v>
       </c>
@@ -8725,7 +9014,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '0920', '82', '0920_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Bonus Toytime Dk',0.00, 'Bonus Toytime Dk (0920)');</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="60">
+    <row r="134" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>82</v>
       </c>
@@ -8753,7 +9042,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '0921', '82', '0921_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Bonus Toytime Dk',0.00, 'Bonus Toytime Dk (0921)');</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="60">
+    <row r="135" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>82</v>
       </c>
@@ -8781,7 +9070,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '2256', '82', '2256_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Crofter Dk',0.00, 'Crofter Dk (2256)');</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="60">
+    <row r="136" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>82</v>
       </c>
@@ -8809,7 +9098,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '2267', '82', '2267_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Crofter Dk',0.00, 'Crofter Dk (2267)');</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="60">
+    <row r="137" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>82</v>
       </c>
@@ -8837,7 +9126,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '2276', '82', '2276_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Crofter Dk',0.00, 'Crofter Dk (2276)');</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="60">
+    <row r="138" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>82</v>
       </c>
@@ -8865,7 +9154,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '2311', '82', '2311_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Crofter Dk',0.00, 'Crofter Dk (2311)');</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="60">
+    <row r="139" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>82</v>
       </c>
@@ -8893,7 +9182,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9130', '82', '9130_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Crofter Dk',0.00, 'Crofter Dk (9130)');</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="60">
+    <row r="140" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>82</v>
       </c>
@@ -8921,7 +9210,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9133', '82', '9133_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Crofter Dk',0.00, 'Crofter Dk (9133)');</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="60">
+    <row r="141" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>82</v>
       </c>
@@ -8949,7 +9238,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9134', '82', '9134_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Crofter Dk',0.00, 'Crofter Dk (9134)');</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="60">
+    <row r="142" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>82</v>
       </c>
@@ -8977,7 +9266,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9135', '82', '9135_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Crofter Dk',0.00, 'Crofter Dk (9135)');</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="60">
+    <row r="143" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>82</v>
       </c>
@@ -9005,7 +9294,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9136', '82', '9136_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Crofter Dk',0.00, 'Crofter Dk (9136)');</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="60">
+    <row r="144" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>82</v>
       </c>
@@ -9033,7 +9322,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9137', '82', '9137_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Crofter Dk',0.00, 'Crofter Dk (9137)');</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="60">
+    <row r="145" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>82</v>
       </c>
@@ -9061,7 +9350,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9189', '82', '9189_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Crofter Dk',0.00, 'Crofter Dk (9189)');</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="60">
+    <row r="146" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>82</v>
       </c>
@@ -9089,7 +9378,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9250', '82', '9250_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Crofter Dk',0.00, 'Crofter Dk (9250)');</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="60">
+    <row r="147" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>82</v>
       </c>
@@ -9117,7 +9406,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9251', '82', '9251_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Crofter Dk',0.00, 'Crofter Dk (9251)');</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="60">
+    <row r="148" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>82</v>
       </c>
@@ -9145,7 +9434,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9338', '82', '9338_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Crofter Dk',0.00, 'Crofter Dk (9338)');</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="60">
+    <row r="149" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>82</v>
       </c>
@@ -9173,7 +9462,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9339', '82', '9339_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Crofter Dk',0.00, 'Crofter Dk (9339)');</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="60">
+    <row r="150" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>82</v>
       </c>
@@ -9201,7 +9490,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '2272', '82', '2272_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Click Dk',0.00, 'Click Dk (2272)');</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="60">
+    <row r="151" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>82</v>
       </c>
@@ -9229,7 +9518,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '8957', '82', '8957_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Click Dk',0.00, 'Click Dk (8957)');</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="60">
+    <row r="152" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>82</v>
       </c>
@@ -9257,7 +9546,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9227', '82', '9227_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Click Dk',0.00, 'Click Dk (9227)');</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="60">
+    <row r="153" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>82</v>
       </c>
@@ -9285,7 +9574,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9228', '82', '9228_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Click Dk',0.00, 'Click Dk (9228)');</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="60">
+    <row r="154" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>82</v>
       </c>
@@ -9313,7 +9602,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9323', '82', '9323_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Click Dk',0.00, 'Click Dk (9323)');</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="60">
+    <row r="155" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>82</v>
       </c>
@@ -9341,7 +9630,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9324', '82', '9324_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Click Dk',0.00, 'Click Dk (9324)');</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="60">
+    <row r="156" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>82</v>
       </c>
@@ -9369,7 +9658,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '2294', '82', '2294_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Country Style Dk',0.00, 'Country Style Dk (2294)');</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="60">
+    <row r="157" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>82</v>
       </c>
@@ -9397,7 +9686,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '4132', '82', '4132_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Country Style Dk',0.00, 'Country Style Dk (4132)');</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="60">
+    <row r="158" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>82</v>
       </c>
@@ -9425,7 +9714,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '5840', '82', '5840_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Country Style Dk',0.00, 'Country Style Dk (5840)');</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="60">
+    <row r="159" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>82</v>
       </c>
@@ -9453,7 +9742,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '5989', '82', '5989_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Country Style Dk',0.00, 'Country Style Dk (5989)');</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="60">
+    <row r="160" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>82</v>
       </c>
@@ -9481,7 +9770,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '8429', '82', '8429_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Country Style Dk',0.00, 'Country Style Dk (8429)');</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="60">
+    <row r="161" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>82</v>
       </c>
@@ -9509,7 +9798,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '8433', '82', '8433_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Country Style Dk',0.00, 'Country Style Dk (8433)');</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="60">
+    <row r="162" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>82</v>
       </c>
@@ -9537,7 +9826,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9096', '82', '9096_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Country Style Dk',0.00, 'Country Style Dk (9096)');</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="60">
+    <row r="163" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>82</v>
       </c>
@@ -9565,7 +9854,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9222', '82', '9222_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Country Style Dk',0.00, 'Country Style Dk (9222)');</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="60">
+    <row r="164" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>82</v>
       </c>
@@ -9593,7 +9882,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9223', '82', '9223_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Country Style Dk',0.00, 'Country Style Dk (9223)');</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="60">
+    <row r="165" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>82</v>
       </c>
@@ -9621,7 +9910,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9364', '82', '9364_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Country Style Dk',0.00, 'Country Style Dk (9364)');</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="60">
+    <row r="166" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>82</v>
       </c>
@@ -9649,7 +9938,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '8318', '82', '8318_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Denim Tweed Dk',0.00, 'Denim Tweed Dk (8318)');</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="60">
+    <row r="167" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>82</v>
       </c>
@@ -9677,7 +9966,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '2235', '82', '2235_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Denim Aran',0.00, 'Denim Aran (2235)');</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="60">
+    <row r="168" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>82</v>
       </c>
@@ -9705,7 +9994,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '5047', '82', '5047_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Denim Aran',0.00, 'Denim Aran (5047)');</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="60">
+    <row r="169" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>82</v>
       </c>
@@ -9733,7 +10022,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '8586', '82', '8586_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Denim Aran',0.00, 'Denim Aran (8586)');</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="60">
+    <row r="170" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>82</v>
       </c>
@@ -9761,7 +10050,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9145', '82', '9145_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Denim Aran',0.00, 'Denim Aran (9145)');</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="60">
+    <row r="171" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>82</v>
       </c>
@@ -9789,7 +10078,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9146', '82', '9146_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Denim Aran',0.00, 'Denim Aran (9146)');</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="60">
+    <row r="172" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>82</v>
       </c>
@@ -9817,7 +10106,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '8485', '82', '8485_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Bonus Aran with Wool',0.00, 'Bonus Aran with Wool (8485)');</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="60">
+    <row r="173" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>82</v>
       </c>
@@ -9845,7 +10134,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9219', '82', '9219_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Bonus Aran with Wool',0.00, 'Bonus Aran with Wool (9219)');</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="60">
+    <row r="174" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>82</v>
       </c>
@@ -9873,7 +10162,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9084', '82', '9084_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Click Aran with Wool',0.00, 'Click Aran with Wool (9084)');</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="60">
+    <row r="175" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>82</v>
       </c>
@@ -9901,7 +10190,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9085', '82', '9085_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Click Aran with Wool',0.00, 'Click Aran with Wool (9085)');</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="60">
+    <row r="176" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>82</v>
       </c>
@@ -9929,7 +10218,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9260', '82', '9260_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Click Aran with Wool',0.00, 'Click Aran with Wool (9260)');</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="60">
+    <row r="177" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>82</v>
       </c>
@@ -9957,7 +10246,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9202', '82', '9202_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Crofter Chunky',0.00, 'Crofter Chunky (9202)');</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="60">
+    <row r="178" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>82</v>
       </c>
@@ -9985,7 +10274,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9205', '82', '9205_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Crofter Chunky',0.00, 'Crofter Chunky (9205)');</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="60">
+    <row r="179" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>82</v>
       </c>
@@ -10013,7 +10302,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9206', '82', '9206_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Crofter Chunky',0.00, 'Crofter Chunky (9206)');</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="60">
+    <row r="180" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>82</v>
       </c>
@@ -10041,7 +10330,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9207', '82', '9207_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Crofter Chunky',0.00, 'Crofter Chunky (9207)');</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="60">
+    <row r="181" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>82</v>
       </c>
@@ -10069,7 +10358,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9208', '82', '9208_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Crofter Chunky',0.00, 'Crofter Chunky (9208)');</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="60">
+    <row r="182" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>82</v>
       </c>
@@ -10097,7 +10386,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9209', '82', '9209_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Crofter Chunky',0.00, 'Crofter Chunky (9209)');</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="60">
+    <row r="183" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>82</v>
       </c>
@@ -10125,7 +10414,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9257', '82', '9257_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Crofter Chunky',0.00, 'Crofter Chunky (9257)');</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="60">
+    <row r="184" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>82</v>
       </c>
@@ -10153,7 +10442,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9258', '82', '9258_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Crofter Chunky',0.00, 'Crofter Chunky (9258)');</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="60">
+    <row r="185" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>82</v>
       </c>
@@ -10181,7 +10470,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9259', '82', '9259_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Crofter Chunky',0.00, 'Crofter Chunky (9259)');</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="60">
+    <row r="186" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>82</v>
       </c>
@@ -10209,7 +10498,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9336', '82', '9336_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Crofter Chunky',0.00, 'Crofter Chunky (9336)');</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="60">
+    <row r="187" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>82</v>
       </c>
@@ -10237,7 +10526,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9380', '82', '9380_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Crofter Chunky',0.00, 'Crofter Chunky (9380)');</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="60">
+    <row r="188" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>82</v>
       </c>
@@ -10265,7 +10554,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '8745', '82', '8745_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Click Chunky with Wool',0.00, 'Click Chunky with Wool (8745)');</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="60">
+    <row r="189" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>82</v>
       </c>
@@ -10293,7 +10582,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '8746', '82', '8746_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Click Chunky with Wool',0.00, 'Click Chunky with Wool (8746)');</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="60">
+    <row r="190" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>82</v>
       </c>
@@ -10321,7 +10610,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '8940', '82', '8940_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Click Chunky with Wool',0.00, 'Click Chunky with Wool (8940)');</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="60">
+    <row r="191" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>82</v>
       </c>
@@ -10349,7 +10638,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '8989', '82', '8989_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Click Chunky with Wool',0.00, 'Click Chunky with Wool (8989)');</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="60">
+    <row r="192" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>82</v>
       </c>
@@ -10377,7 +10666,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9058', '82', '9058_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Click Chunky with Wool',0.00, 'Click Chunky with Wool (9058)');</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="60">
+    <row r="193" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>82</v>
       </c>
@@ -10405,7 +10694,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9061', '82', '9061_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Click Chunky with Wool',0.00, 'Click Chunky with Wool (9061)');</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="60">
+    <row r="194" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>82</v>
       </c>
@@ -10433,7 +10722,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9229', '82', '9229_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Click Chunky with Wool',0.00, 'Click Chunky with Wool (9229)');</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="60">
+    <row r="195" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>82</v>
       </c>
@@ -10461,7 +10750,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9230', '82', '9230_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Click Chunky with Wool',0.00, 'Click Chunky with Wool (9230)');</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="60">
+    <row r="196" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>82</v>
       </c>
@@ -10489,7 +10778,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '8949', '82', '8949_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Denim Ultra',0.00, 'Denim Ultra (8949)');</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="60">
+    <row r="197" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>82</v>
       </c>
@@ -10517,7 +10806,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '8950', '82', '8950_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Denim Ultra',0.00, 'Denim Ultra (8950)');</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="60">
+    <row r="198" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>82</v>
       </c>
@@ -10545,7 +10834,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '8951', '82', '8951_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Denim Ultra',0.00, 'Denim Ultra (8951)');</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="60">
+    <row r="199" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>82</v>
       </c>
@@ -10573,7 +10862,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9001', '82', '9001_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Denim Ultra',0.00, 'Denim Ultra (9001)');</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="60">
+    <row r="200" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>82</v>
       </c>
@@ -10601,7 +10890,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9002', '82', '9002_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Denim Ultra',0.00, 'Denim Ultra (9002)');</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="60">
+    <row r="201" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>82</v>
       </c>
@@ -10629,7 +10918,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9101', '82', '9101_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Denim Ultra',0.00, 'Denim Ultra (9101)');</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="60">
+    <row r="202" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>82</v>
       </c>
@@ -10657,7 +10946,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9237', '82', '9237_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Denim Ultra',0.00, 'Denim Ultra (9237)');</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="60">
+    <row r="203" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>82</v>
       </c>
@@ -10685,7 +10974,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9239', '82', '9239_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Denim Ultra',0.00, 'Denim Ultra (9239)');</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="60">
+    <row r="204" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>80</v>
       </c>
@@ -10713,7 +11002,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9306', '80', '9306_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Connemara Chunky',0.00, 'Connemara Chunky (9306)');</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="60">
+    <row r="205" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>80</v>
       </c>
@@ -10741,7 +11030,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9308', '80', '9308_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Connemara Chunky',0.00, 'Connemara Chunky (9308)');</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="60">
+    <row r="206" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>80</v>
       </c>
@@ -10769,7 +11058,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9310', '80', '9310_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Connemara Chunky',0.00, 'Connemara Chunky (9310)');</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="60">
+    <row r="207" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>80</v>
       </c>
@@ -10797,7 +11086,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9311', '80', '9311_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Connemara Chunky',0.00, 'Connemara Chunky (9311)');</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="60">
+    <row r="208" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>80</v>
       </c>
@@ -10825,7 +11114,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9312', '80', '9312_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Connemara Chunky',0.00, 'Connemara Chunky (9312)');</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="60">
+    <row r="209" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>80</v>
       </c>
@@ -10853,7 +11142,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9313', '80', '9313_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Connemara Chunky',0.00, 'Connemara Chunky (9313)');</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="60">
+    <row r="210" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>80</v>
       </c>
@@ -10881,7 +11170,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9382', '80', '9382_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Connemara Chunky',0.00, 'Connemara Chunky (9382)');</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="60">
+    <row r="211" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>80</v>
       </c>
@@ -10909,7 +11198,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9383', '80', '9383_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Connemara Chunky',0.00, 'Connemara Chunky (9383)');</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="60">
+    <row r="212" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>80</v>
       </c>
@@ -10937,7 +11226,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9384', '80', '9384_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Connemara Chunky',0.00, 'Connemara Chunky (9384)');</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="60">
+    <row r="213" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>80</v>
       </c>
@@ -10965,7 +11254,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9314', '80', '9314_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Indie',0.00, 'Indie (9314)');</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="60">
+    <row r="214" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>80</v>
       </c>
@@ -10993,7 +11282,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9315', '80', '9315_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Indie',0.00, 'Indie (9315)');</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="60">
+    <row r="215" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>80</v>
       </c>
@@ -11021,7 +11310,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9316', '80', '9316_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Indie',0.00, 'Indie (9316)');</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="60">
+    <row r="216" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>80</v>
       </c>
@@ -11049,7 +11338,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9317', '80', '9317_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Indie',0.00, 'Indie (9317)');</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="60">
+    <row r="217" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>80</v>
       </c>
@@ -11077,7 +11366,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9318', '80', '9318_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Indie',0.00, 'Indie (9318)');</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="60">
+    <row r="218" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>80</v>
       </c>
@@ -11105,7 +11394,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9319', '80', '9319_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Indie',0.00, 'Indie (9319)');</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="60">
+    <row r="219" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>80</v>
       </c>
@@ -11133,7 +11422,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9320', '80', '9320_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Indie',0.00, 'Indie (9320)');</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="60">
+    <row r="220" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>80</v>
       </c>
@@ -11161,7 +11450,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9321', '80', '9321_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Indie',0.00, 'Indie (9321)');</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="60">
+    <row r="221" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>80</v>
       </c>
@@ -11189,7 +11478,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9400', '80', '9400_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Indie',0.00, 'Indie (9400)');</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="60">
+    <row r="222" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>80</v>
       </c>
@@ -11217,7 +11506,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9401', '80', '9401_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Indie',0.00, 'Indie (9401)');</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="60">
+    <row r="223" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>80</v>
       </c>
@@ -11245,7 +11534,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9402', '80', '9402_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Indie',0.00, 'Indie (9402)');</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="60">
+    <row r="224" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>80</v>
       </c>
@@ -11273,7 +11562,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '2269', '80', '2269_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Escape Chunky',0.00, 'Escape Chunky (2269)');</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="60">
+    <row r="225" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>80</v>
       </c>
@@ -11301,7 +11590,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9212', '80', '9212_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Escape Chunky',0.00, 'Escape Chunky (9212)');</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="60">
+    <row r="226" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>80</v>
       </c>
@@ -11329,7 +11618,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9215', '80', '9215_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Escape Chunky',0.00, 'Escape Chunky (9215)');</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="60">
+    <row r="227" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>80</v>
       </c>
@@ -11357,7 +11646,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9256', '80', '9256_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Escape Chunky',0.00, 'Escape Chunky (9256)');</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="60">
+    <row r="228" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>80</v>
       </c>
@@ -11385,7 +11674,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9345', '80', '9345_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Escape Chunky',0.00, 'Escape Chunky (9345)');</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="60">
+    <row r="229" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>80</v>
       </c>
@@ -11413,7 +11702,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9346', '80', '9346_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Escape Chunky',0.00, 'Escape Chunky (9346)');</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="60">
+    <row r="230" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>80</v>
       </c>
@@ -11441,7 +11730,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9347', '80', '9347_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Escape Chunky',0.00, 'Escape Chunky (9347)');</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="60">
+    <row r="231" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>80</v>
       </c>
@@ -11469,7 +11758,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9170', '80', '9170_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Nomad',0.00, 'Nomad (9170)');</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="60">
+    <row r="232" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>80</v>
       </c>
@@ -11497,7 +11786,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9171', '80', '9171_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Nomad',0.00, 'Nomad (9171)');</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="60">
+    <row r="233" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>80</v>
       </c>
@@ -11525,7 +11814,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9172', '80', '9172_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Nomad',0.00, 'Nomad (9172)');</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="60">
+    <row r="234" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>80</v>
       </c>
@@ -11553,7 +11842,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9173', '80', '9173_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Nomad',0.00, 'Nomad (9173)');</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="60">
+    <row r="235" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>80</v>
       </c>
@@ -11581,7 +11870,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9174', '80', '9174_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Nomad',0.00, 'Nomad (9174)');</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="60">
+    <row r="236" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>80</v>
       </c>
@@ -11609,7 +11898,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9175', '80', '9175_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Nomad',0.00, 'Nomad (9175)');</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="60">
+    <row r="237" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>80</v>
       </c>
@@ -11637,7 +11926,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9176', '80', '9176_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Nomad',0.00, 'Nomad (9176)');</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="60">
+    <row r="238" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>80</v>
       </c>
@@ -11665,7 +11954,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9177', '80', '9177_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Nomad',0.00, 'Nomad (9177)');</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="60">
+    <row r="239" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>80</v>
       </c>
@@ -11693,7 +11982,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '2266', '80', '2266_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Escape Dk',0.00, 'Escape Dk (2266)');</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="60">
+    <row r="240" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>80</v>
       </c>
@@ -11721,7 +12010,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9074', '80', '9074_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Escape Dk',0.00, 'Escape Dk (9074)');</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="60">
+    <row r="241" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>80</v>
       </c>
@@ -11749,7 +12038,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9075', '80', '9075_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Escape Dk',0.00, 'Escape Dk (9075)');</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="60">
+    <row r="242" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>80</v>
       </c>
@@ -11777,7 +12066,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9076', '80', '9076_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Escape Dk',0.00, 'Escape Dk (9076)');</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="60">
+    <row r="243" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>80</v>
       </c>
@@ -11805,7 +12094,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9077', '80', '9077_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Escape Dk',0.00, 'Escape Dk (9077)');</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="60">
+    <row r="244" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>80</v>
       </c>
@@ -11833,7 +12122,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9078', '80', '9078_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Escape Dk',0.00, 'Escape Dk (9078)');</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="60">
+    <row r="245" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>80</v>
       </c>
@@ -11861,7 +12150,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9079', '80', '9079_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Escape Dk',0.00, 'Escape Dk (9079)');</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="60">
+    <row r="246" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>80</v>
       </c>
@@ -11889,7 +12178,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9080', '80', '9080_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Escape Dk',0.00, 'Escape Dk (9080)');</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="60">
+    <row r="247" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>80</v>
       </c>
@@ -11917,7 +12206,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9081', '80', '9081_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Escape Dk',0.00, 'Escape Dk (9081)');</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="60">
+    <row r="248" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>80</v>
       </c>
@@ -11945,7 +12234,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9127', '80', '9127_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Escape Dk',0.00, 'Escape Dk (9127)');</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="60">
+    <row r="249" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>80</v>
       </c>
@@ -11973,7 +12262,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9128', '80', '9128_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Escape Dk',0.00, 'Escape Dk (9128)');</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="60">
+    <row r="250" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>80</v>
       </c>
@@ -12001,7 +12290,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9179', '80', '9179_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Escape Dk',0.00, 'Escape Dk (9179)');</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="60">
+    <row r="251" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>80</v>
       </c>
@@ -12029,7 +12318,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9180', '80', '9180_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Escape Dk',0.00, 'Escape Dk (9180)');</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="60">
+    <row r="252" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>80</v>
       </c>
@@ -12057,7 +12346,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9362', '80', '9362_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Escape Dk',0.00, 'Escape Dk (9362)');</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="60">
+    <row r="253" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>80</v>
       </c>
@@ -12085,7 +12374,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '8768', '80', '8768_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Yo Yo',0.00, 'Yo Yo (8768)');</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="60">
+    <row r="254" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>80</v>
       </c>
@@ -12113,7 +12402,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '8844', '80', '8844_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Yo Yo',0.00, 'Yo Yo (8844)');</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="60">
+    <row r="255" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>80</v>
       </c>
@@ -12141,7 +12430,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9200', '80', '9200_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Yo Yo',0.00, 'Yo Yo (9200)');</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="60">
+    <row r="256" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>80</v>
       </c>
@@ -12169,7 +12458,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9201', '80', '9201_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Yo Yo',0.00, 'Yo Yo (9201)');</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="60">
+    <row r="257" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>80</v>
       </c>
@@ -12197,7 +12486,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '2307', '80', '2307_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Squiggle Super Chunky',0.00, 'Squiggle Super Chunky (2307)');</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="60">
+    <row r="258" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>80</v>
       </c>
@@ -12225,7 +12514,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '2308', '80', '2308_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Squiggle Super Chunky',0.00, 'Squiggle Super Chunky (2308)');</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="60">
+    <row r="259" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>80</v>
       </c>
@@ -12253,7 +12542,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '2309', '80', '2309_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Squiggle Super Chunky',0.00, 'Squiggle Super Chunky (2309)');</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="60">
+    <row r="260" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>80</v>
       </c>
@@ -12281,7 +12570,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '2310', '80', '2310_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Squiggle Super Chunky',0.00, 'Squiggle Super Chunky (2310)');</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="60">
+    <row r="261" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>80</v>
       </c>
@@ -12309,7 +12598,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '2312', '80', '2312_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Squiggle Super Chunky',0.00, 'Squiggle Super Chunky (2312)');</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="60">
+    <row r="262" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>80</v>
       </c>
@@ -12337,7 +12626,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '2313', '80', '2313_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Squiggle Super Chunky',0.00, 'Squiggle Super Chunky (2313)');</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="60">
+    <row r="263" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>80</v>
       </c>
@@ -12365,7 +12654,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9357', '80', '9357_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Squiggle Super Chunky',0.00, 'Squiggle Super Chunky (9357)');</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="60">
+    <row r="264" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>80</v>
       </c>
@@ -12393,7 +12682,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9358', '80', '9358_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Squiggle Super Chunky',0.00, 'Squiggle Super Chunky (9358)');</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="60">
+    <row r="265" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>80</v>
       </c>
@@ -12421,7 +12710,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9359', '80', '9359_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Squiggle Super Chunky',0.00, 'Squiggle Super Chunky (9359)');</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="60">
+    <row r="266" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>80</v>
       </c>
@@ -12449,7 +12738,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, '9360', '80', '9360_col.jpg', 0.00, '2010-11-25 20:00:00', '2010-11-25 20:00:00', NULL, '0.00', 1, 0, 2, 0,'Squiggle Super Chunky',0.00, 'Squiggle Super Chunky (9360)');</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="60">
+    <row r="267" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>80</v>
       </c>
@@ -12483,14 +12772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+    <sheetView topLeftCell="C14" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
@@ -12501,7 +12790,7 @@
     <col min="8" max="8" width="143.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45">
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>785</v>
       </c>
@@ -12524,7 +12813,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60">
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>106</v>
       </c>
@@ -12550,7 +12839,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, 'CCN-001', '106', 'rico_ccn_001.jpg', 0.00, '2010-12-09 23:45:00', '2010-12-09 23:45:00', NULL, '0.00', 1, 0, 2, 0,'Rico Can Can',9.95, 'Rico Can Can - Cream 001');</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="60">
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>106</v>
       </c>
@@ -12576,7 +12865,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, 'CCN-002', '106', 'rico_ccn_002.jpg', 0.00, '2010-12-09 23:45:00', '2010-12-09 23:45:00', NULL, '0.00', 1, 0, 2, 0,'Rico Can Can',9.95, 'Rico Can Can - Grey 002');</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="60">
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>106</v>
       </c>
@@ -12602,7 +12891,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, 'CCN-003', '106', 'rico_ccn_003.jpg', 0.00, '2010-12-09 23:45:00', '2010-12-09 23:45:00', NULL, '0.00', 1, 0, 2, 0,'Rico Can Can',9.95, 'Rico Can Can - Black 003');</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="60">
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>106</v>
       </c>
@@ -12628,7 +12917,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, 'CCN-004', '106', 'rico_ccn_004.jpg', 0.00, '2010-12-09 23:45:00', '2010-12-09 23:45:00', NULL, '0.00', 1, 0, 2, 0,'Rico Can Can',9.95, 'Rico Can Can - Dark Green 004');</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="60">
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>106</v>
       </c>
@@ -12654,7 +12943,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, 'CCN-005', '106', 'rico_ccn_005.jpg', 0.00, '2010-12-09 23:45:00', '2010-12-09 23:45:00', NULL, '0.00', 1, 0, 2, 0,'Rico Can Can',9.95, 'Rico Can Can - Turquoise 005');</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60">
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>106</v>
       </c>
@@ -12680,7 +12969,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, 'CCN-006', '106', 'rico_ccn_006.jpg', 0.00, '2010-12-09 23:45:00', '2010-12-09 23:45:00', NULL, '0.00', 1, 0, 2, 0,'Rico Can Can',9.95, 'Rico Can Can - Red 006');</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="60">
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>106</v>
       </c>
@@ -12706,7 +12995,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, 'CCN-007', '106', 'rico_ccn_007.jpg', 0.00, '2010-12-09 23:45:00', '2010-12-09 23:45:00', NULL, '0.00', 1, 0, 2, 0,'Rico Can Can',9.95, 'Rico Can Can - Fuchsia 007');</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="60">
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>106</v>
       </c>
@@ -12732,7 +13021,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, 'CCN-008', '106', 'rico_ccn_008.jpg', 0.00, '2010-12-09 23:45:00', '2010-12-09 23:45:00', NULL, '0.00', 1, 0, 2, 0,'Rico Can Can',9.95, 'Rico Can Can - Purple 008');</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="60">
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>106</v>
       </c>
@@ -12758,7 +13047,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, 'CCP-001', '106', 'rico_ccp_001.jpg', 0.00, '2010-12-09 23:45:00', '2010-12-09 23:45:00', NULL, '0.00', 1, 0, 2, 0,'Rico Can Can',9.95, 'Rico Can Can Print - Black/White 001');</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="60">
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>106</v>
       </c>
@@ -12784,7 +13073,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, 'CCP-002', '106', 'rico_ccp_002.jpg', 0.00, '2010-12-09 23:45:00', '2010-12-09 23:45:00', NULL, '0.00', 1, 0, 2, 0,'Rico Can Can',9.95, 'Rico Can Can Print - Aqua 002');</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="60">
+    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>106</v>
       </c>
@@ -12810,7 +13099,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, 'CCP-003', '106', 'rico_ccp_003.jpg', 0.00, '2010-12-09 23:45:00', '2010-12-09 23:45:00', NULL, '0.00', 1, 0, 2, 0,'Rico Can Can',9.95, 'Rico Can Can Print - Black/Red 003');</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="60">
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>106</v>
       </c>
@@ -12836,7 +13125,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, 'CCP-004', '106', 'rico_ccp_004.jpg', 0.00, '2010-12-09 23:45:00', '2010-12-09 23:45:00', NULL, '0.00', 1, 0, 2, 0,'Rico Can Can',9.95, 'Rico Can Can Print - Purple Mix 004');</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="60">
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>106</v>
       </c>
@@ -12862,7 +13151,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, 'CCP-005', '106', 'rico_ccp_005.jpg', 0.00, '2010-12-09 23:45:00', '2010-12-09 23:45:00', NULL, '0.00', 1, 0, 2, 0,'Rico Can Can',9.95, 'Rico Can Can Print - Red Mix 005');</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="60">
+    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>106</v>
       </c>
@@ -12888,7 +13177,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, 'CCP-006', '106', 'rico_ccp_006.jpg', 0.00, '2010-12-09 23:45:00', '2010-12-09 23:45:00', NULL, '0.00', 1, 0, 2, 0,'Rico Can Can',9.95, 'Rico Can Can Print - Blue Pink Mix 006');</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="60">
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>106</v>
       </c>
@@ -12914,7 +13203,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, 'CCP-007', '106', 'rico_ccp_007.jpg', 0.00, '2010-12-09 23:45:00', '2010-12-09 23:45:00', NULL, '0.00', 1, 0, 2, 0,'Rico Can Can',9.95, 'Rico Can Can Print - Turquoise Mix 007');</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="60">
+    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>106</v>
       </c>
@@ -12940,7 +13229,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, 'CCP-008', '106', 'rico_ccp_008.jpg', 0.00, '2010-12-09 23:45:00', '2010-12-09 23:45:00', NULL, '0.00', 1, 0, 2, 0,'Rico Can Can',9.95, 'Rico Can Can Print - Blue Mix 008');</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="60">
+    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>106</v>
       </c>
@@ -12966,7 +13255,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, 'CCP-009', '106', 'rico_ccp_009.jpg', 0.00, '2010-12-09 23:45:00', '2010-12-09 23:45:00', NULL, '0.00', 1, 0, 2, 0,'Rico Can Can',9.95, 'Rico Can Can Print - Plum Mix 009');</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="60">
+    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>106</v>
       </c>
@@ -12992,7 +13281,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, 'CCP-010', '106', 'rico_ccp_010.jpg', 0.00, '2010-12-09 23:45:00', '2010-12-09 23:45:00', NULL, '0.00', 1, 0, 2, 0,'Rico Can Can',9.95, 'Rico Can Can Print - Green Mix 010');</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="60">
+    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>106</v>
       </c>
@@ -13018,7 +13307,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, 'CCP-011', '106', 'rico_ccp_011.jpg', 0.00, '2010-12-09 23:45:00', '2010-12-09 23:45:00', NULL, '0.00', 1, 0, 2, 0,'Rico Can Can',9.95, 'Rico Can Can Print - Berry Mix 011');</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="60">
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>106</v>
       </c>
@@ -13044,7 +13333,7 @@
         <v>INSERT INTO products (products_quantity, products_model, dataload_category_id, products_image, products_price, products_date_added, products_last_modified, products_date_available, products_weight, products_status, products_tax_class_id, manufacturers_id, products_ordered,dataload_gender,dataload_price_rrp,dataload_name) VALUES (1, 'CCP-012', '106', 'rico_ccp_012.jpg', 0.00, '2010-12-09 23:45:00', '2010-12-09 23:45:00', NULL, '0.00', 1, 0, 2, 0,'Rico Can Can',9.95, 'Rico Can Can Print - Brown Mix 012');</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="60">
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>106</v>
       </c>
@@ -13073,4 +13362,750 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>921</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>920</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F1&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/1999_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>917</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>916</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F2&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/1998_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>915</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>914</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>913</v>
+      </c>
+      <c r="G3" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F3&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/1245_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>912</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>911</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>910</v>
+      </c>
+      <c r="G4" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F4&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/1244_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>909</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>908</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>907</v>
+      </c>
+      <c r="G5" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F5&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/1243_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>906</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>904</v>
+      </c>
+      <c r="G6" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F6&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/1852_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>903</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>902</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>901</v>
+      </c>
+      <c r="G7" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F7&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/1849_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>900</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>899</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>898</v>
+      </c>
+      <c r="G8" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F8&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/9424_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>897</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>896</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>895</v>
+      </c>
+      <c r="G9" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F9&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/9423_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>894</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>893</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>892</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>891</v>
+      </c>
+      <c r="G10" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F10&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/9422_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>890</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>889</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="G11" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F11&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/9421_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>887</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>886</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>885</v>
+      </c>
+      <c r="G12" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F12&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/9420_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>884</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>883</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="G13" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F13&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/9419_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>881</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>879</v>
+      </c>
+      <c r="G14" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F14&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/9418_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="G15" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F15&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/9417_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>874</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>873</v>
+      </c>
+      <c r="G16" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F16&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/1235_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>872</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>871</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="G17" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F17&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/1234_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>869</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>868</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>867</v>
+      </c>
+      <c r="G18" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F18&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/1233_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>865</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>864</v>
+      </c>
+      <c r="G19" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F19&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/1232_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>863</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>862</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>861</v>
+      </c>
+      <c r="G20" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F20&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/1231_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>860</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>859</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="G21" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F21&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/1230_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="G22" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F22&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/1229_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>852</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>850</v>
+      </c>
+      <c r="G23" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F23&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/1228_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="G24" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F24&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/9288_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F25" s="13" t="s">
+        <v>848</v>
+      </c>
+      <c r="G25" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F25&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/2289_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="G26" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F26&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/1236_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="G27" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F27&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/1944_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="13" t="s">
+        <v>845</v>
+      </c>
+      <c r="G28" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F28&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/1242_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="13" t="s">
+        <v>844</v>
+      </c>
+      <c r="G29" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F29&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/3806_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="13" t="s">
+        <v>843</v>
+      </c>
+      <c r="G30" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F30&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/3174_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="13" t="s">
+        <v>842</v>
+      </c>
+      <c r="G31" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F31&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/1969_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="13" t="s">
+        <v>841</v>
+      </c>
+      <c r="G32" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F32&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/1251_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="13" t="s">
+        <v>840</v>
+      </c>
+      <c r="G33" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F33&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/1249_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="13" t="s">
+        <v>839</v>
+      </c>
+      <c r="G34" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F34&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/1247_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="13" t="s">
+        <v>838</v>
+      </c>
+      <c r="G35" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F35&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/1246_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F36" s="13" t="s">
+        <v>837</v>
+      </c>
+      <c r="G36" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F36&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/9407_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F37" s="13" t="s">
+        <v>836</v>
+      </c>
+      <c r="G37" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F37&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/9290_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F38" s="13" t="s">
+        <v>835</v>
+      </c>
+      <c r="G38" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F38&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/9470_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F39" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="G39" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F39&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/9475_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F40" s="13" t="s">
+        <v>833</v>
+      </c>
+      <c r="G40" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F40&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/9474_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F41" s="13" t="s">
+        <v>832</v>
+      </c>
+      <c r="G41" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F41&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/9473_col.jpg"&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F42" s="13" t="s">
+        <v>831</v>
+      </c>
+      <c r="G42" t="str">
+        <f>"&lt;img src=""http://www.sirdar.co.uk/images/products/yarns_relateddesigns/"&amp;F42&amp;"""&gt;"</f>
+        <v>&lt;img src="http://www.sirdar.co.uk/images/products/yarns_relateddesigns/9471_col.jpg"&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>